--- a/Documentation/Risk Assessment.xlsx
+++ b/Documentation/Risk Assessment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\University\Year 3\COMP3000\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\University\Year 3\COMP3000\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAAA67A-C472-4D60-94B3-BA41C5EB790A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6282BDA4-4E4E-4969-AD8C-22A7E0BA1F8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1200,7 +1200,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Risk Assessment.xlsx
+++ b/Documentation/Risk Assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\University\Year 3\COMP3000\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6282BDA4-4E4E-4969-AD8C-22A7E0BA1F8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58166292-6E97-4547-A216-C456508C4566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>Risk ID</t>
   </si>
@@ -285,6 +285,18 @@
   </si>
   <si>
     <t>Less than 10% chance</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Changes to technologies during development</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
   </si>
 </sst>
 </file>
@@ -384,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -594,28 +606,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -668,51 +658,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -731,13 +676,67 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -754,15 +753,6 @@
     <xf numFmtId="9" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -817,70 +807,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1197,10 +1178,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,95 +1202,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-      <c r="J2" s="36" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="J2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="27" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="6">
         <v>5</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="7">
         <v>0.25</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="6">
         <v>1.25</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="27" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1">
@@ -1321,24 +1305,24 @@
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="27" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1">
@@ -1353,396 +1337,420 @@
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="27" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="3">
         <v>0.3</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="1">
         <v>0.9</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="J8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="6">
         <v>4</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="7">
         <v>0.25</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="J9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="8">
         <v>2</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="9">
         <v>0.3</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="8">
         <v>0.6</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="J10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="J10" s="36" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="J11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="H13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="C14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="J15" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="E16" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="36" t="s">
+      <c r="H16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="H17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="6">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="E19" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="38"/>
-    </row>
-    <row r="13" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="J14" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="H19" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-      <c r="J17" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="9">
-        <v>3</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="4">
-        <v>4</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="19" t="s">
+      <c r="H20" s="16" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>